--- a/data/validation_3.xlsx
+++ b/data/validation_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945ADC2B-2070-461D-B581-351FD844C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5BD1C4-E8F2-4D7A-93B7-CA28146B71F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="118">
   <si>
     <t>구분명</t>
   </si>
@@ -221,142 +221,94 @@
     <t>error test 11</t>
   </si>
   <si>
-    <t>010-6275-4154</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 12</t>
   </si>
   <si>
     <t>error test 12</t>
   </si>
   <si>
-    <t>010-6275-4155</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 13</t>
   </si>
   <si>
     <t>error test 13</t>
   </si>
   <si>
-    <t>010-6275-4156</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 14</t>
   </si>
   <si>
     <t>error test 14</t>
   </si>
   <si>
-    <t>010-6275-4157</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 15</t>
   </si>
   <si>
     <t>error test 15</t>
   </si>
   <si>
-    <t>010-6275-4158</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 16</t>
   </si>
   <si>
     <t>error test 16</t>
   </si>
   <si>
-    <t>010-6275-4159</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 17</t>
   </si>
   <si>
     <t>error test 17</t>
   </si>
   <si>
-    <t>010-6275-4160</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 18</t>
   </si>
   <si>
     <t>error test 18</t>
   </si>
   <si>
-    <t>010-6275-4161</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 19</t>
   </si>
   <si>
     <t>error test 19</t>
   </si>
   <si>
-    <t>010-6275-4162</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 20</t>
   </si>
   <si>
     <t>error test 20</t>
   </si>
   <si>
-    <t>010-6275-4163</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 21</t>
   </si>
   <si>
     <t>error test 21</t>
   </si>
   <si>
-    <t>010-6275-4164</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 22</t>
   </si>
   <si>
     <t>error test 22</t>
   </si>
   <si>
-    <t>010-6275-4165</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 23</t>
   </si>
   <si>
     <t>error test 23</t>
   </si>
   <si>
-    <t>010-6275-4166</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 24</t>
   </si>
   <si>
     <t>error test 24</t>
   </si>
   <si>
-    <t>010-6275-4167</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 25</t>
   </si>
   <si>
     <t>error test 25</t>
   </si>
   <si>
-    <t>010-6275-4168</t>
-  </si>
-  <si>
     <t>오류 확인 테스트 26</t>
   </si>
   <si>
     <t>error test 26</t>
-  </si>
-  <si>
-    <t>010-6275-4169</t>
   </si>
   <si>
     <t>성공 확인 테스트 11</t>
@@ -943,12 +895,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1221,518 +1173,518 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2720,7 +2672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2830,20 +2782,16 @@
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
@@ -2852,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="4">
-        <v>15000</v>
+        <v>1234567890</v>
       </c>
       <c r="J3" s="4">
         <v>5</v>
@@ -2860,14 +2808,14 @@
       <c r="K3" s="4">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>22</v>
+      <c r="L3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="O3" s="10"/>
     </row>
@@ -2885,10 +2833,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
@@ -2923,17 +2871,13 @@
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
+        <v>114</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>19</v>
@@ -2960,7 +2904,6 @@
         <v>23</v>
       </c>
       <c r="O5" s="10"/>
-      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -2976,10 +2919,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -3006,7 +2949,6 @@
         <v>23</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -3015,17 +2957,13 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>19</v>
@@ -3067,10 +3005,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
@@ -3098,36 +3036,6 @@
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -3136,17 +3044,13 @@
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>19</v>
@@ -3173,6 +3077,7 @@
         <v>23</v>
       </c>
       <c r="O9" s="10"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -3188,10 +3093,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
@@ -3218,25 +3123,22 @@
         <v>23</v>
       </c>
       <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>19</v>
@@ -3263,21 +3165,26 @@
         <v>23</v>
       </c>
       <c r="O11" s="10"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
@@ -3286,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="4">
-        <v>1234567890</v>
+        <v>15000</v>
       </c>
       <c r="J12" s="4">
         <v>5</v>
@@ -3294,14 +3201,14 @@
       <c r="K12" s="4">
         <v>10</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>133</v>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="O12" s="10"/>
     </row>
@@ -3315,10 +3222,10 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="9" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>19</v>
@@ -3353,13 +3260,17 @@
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
@@ -3386,6 +3297,37 @@
         <v>23</v>
       </c>
       <c r="O14" s="10"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -3397,10 +3339,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>19</v>
@@ -3427,6 +3369,17 @@
         <v>23</v>
       </c>
       <c r="O15" s="10"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -3435,13 +3388,17 @@
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>19</v>
@@ -3479,10 +3436,10 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
@@ -3508,7 +3465,7 @@
       <c r="N17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="11"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -3517,13 +3474,17 @@
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>19</v>
@@ -3561,10 +3522,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>19</v>
@@ -3592,20 +3553,24 @@
       </c>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>19</v>
@@ -3631,7 +3596,7 @@
       <c r="N20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -3640,17 +3605,13 @@
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>112</v>
+        <v>52</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>19</v>
@@ -3676,7 +3637,7 @@
       <c r="N21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -3692,10 +3653,10 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>19</v>
@@ -3721,7 +3682,7 @@
       <c r="N22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -3730,17 +3691,13 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>116</v>
+        <v>63</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>19</v>
@@ -3766,7 +3723,7 @@
       <c r="N23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -3782,10 +3739,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>19</v>
@@ -3811,7 +3768,7 @@
       <c r="N24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -3820,17 +3777,13 @@
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>19</v>
@@ -3856,7 +3809,7 @@
       <c r="N25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -3872,10 +3825,10 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>19</v>
@@ -3901,7 +3854,7 @@
       <c r="N26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="9"/>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -3910,17 +3863,13 @@
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>124</v>
+        <v>67</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>19</v>
@@ -3946,7 +3895,7 @@
       <c r="N27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -3962,10 +3911,10 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>19</v>
@@ -3991,7 +3940,7 @@
       <c r="N28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
@@ -4000,17 +3949,13 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>19</v>
@@ -4045,13 +3990,17 @@
       <c r="B30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>53</v>
+        <v>103</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>19</v>
@@ -4077,7 +4026,7 @@
       <c r="N30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="10"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -4089,10 +4038,10 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>19</v>
@@ -4116,8 +4065,9 @@
         <v>22</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
@@ -4126,13 +4076,17 @@
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E32" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>67</v>
+        <v>105</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>19</v>
@@ -4156,10 +4110,11 @@
         <v>22</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -4169,10 +4124,10 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>19</v>
@@ -4196,23 +4151,28 @@
         <v>22</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E34" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>19</v>
@@ -4236,10 +4196,11 @@
         <v>22</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -4276,10 +4237,11 @@
         <v>22</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -4289,10 +4251,10 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>19</v>
@@ -4316,23 +4278,28 @@
         <v>22</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>19</v>
@@ -4356,10 +4323,11 @@
         <v>22</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -4369,10 +4337,10 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>19</v>
@@ -4396,23 +4364,28 @@
         <v>22</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>88</v>
+        <v>111</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>19</v>
@@ -4436,10 +4409,11 @@
         <v>22</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -4449,10 +4423,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -4476,10 +4450,10 @@
         <v>22</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -4489,10 +4463,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>19</v>
@@ -4516,10 +4490,10 @@
         <v>22</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -4529,10 +4503,10 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>19</v>
@@ -4556,10 +4530,10 @@
         <v>22</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -4569,10 +4543,10 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>19</v>
@@ -4596,10 +4570,10 @@
         <v>22</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
@@ -4609,10 +4583,10 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>19</v>
@@ -4636,10 +4610,10 @@
         <v>22</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -4649,10 +4623,10 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>19</v>
@@ -4676,10 +4650,10 @@
         <v>22</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -4689,10 +4663,10 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="9" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
@@ -4716,14 +4690,14 @@
         <v>22</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
